--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3087268.568157591</v>
+        <v>3193342.166310437</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8293270.506198139</v>
+        <v>8308422.42132587</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>207.5754705974935</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>323.9946744192437</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.20584125154502</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>132.4240037368297</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>129.2207871024371</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>346.9270182210271</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>97.28002421814185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>137.3518934492377</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>281.8953352974225</v>
       </c>
       <c r="Y8" t="n">
-        <v>259.2912737288259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>6.380068175848154</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>65.34907289947479</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>131.6329842920048</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>150.2480931018391</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>106.8299898147636</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>105.5518343409904</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>146.9114582540259</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>98.00068573248018</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2609,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>125.2700607443043</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2843,13 +2845,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>141.383131826302</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>66.39615665301106</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,16 +3237,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>264.5606084460156</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>123.9815576456788</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>121.8000472740358</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>41.55695577161148</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>30.87238256911979</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>106.1798850986046</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.86846495359787</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D46" t="n">
-        <v>109.7234882887309</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066533</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>2421.049596543812</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>2047.583838282732</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y2" t="n">
-        <v>2047.583838282732</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064586</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1640.204086189708</v>
+        <v>648.7476305124051</v>
       </c>
       <c r="C4" t="n">
-        <v>1640.204086189708</v>
+        <v>479.8114475844982</v>
       </c>
       <c r="D4" t="n">
-        <v>1640.204086189708</v>
+        <v>479.8114475844982</v>
       </c>
       <c r="E4" t="n">
-        <v>1611.713337450773</v>
+        <v>331.8983540021051</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.823389952863</v>
+        <v>185.0084065041947</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952863</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952863</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952863</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348675</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797171</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.65004939672</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102585</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022998</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456658</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609172</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609172</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609172</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178699</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>2814.736339304342</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V4" t="n">
-        <v>2560.051851098455</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="W4" t="n">
-        <v>2270.634681061495</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="X4" t="n">
-        <v>2042.645130163477</v>
+        <v>1051.188674486175</v>
       </c>
       <c r="Y4" t="n">
-        <v>1821.852551019947</v>
+        <v>830.3960953426448</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2100.012626270158</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>1969.486578691939</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883008</v>
+        <v>1616.717923421825</v>
       </c>
       <c r="X5" t="n">
-        <v>2721.644013346617</v>
+        <v>1616.717923421825</v>
       </c>
       <c r="Y5" t="n">
-        <v>2331.504681370805</v>
+        <v>1616.717923421825</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460311</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292608</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>792.0543138529669</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>623.11813092506</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V7" t="n">
-        <v>1539.929030488741</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="W7" t="n">
-        <v>1250.51186045178</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>930.7936001653281</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>792.0543138529669</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1303.529887077737</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,25 +4804,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645724</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y8" t="n">
-        <v>1690.129727141859</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1920.850034779555</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1699.083419349081</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1409.980552474725</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>1035.98168704768</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>807.9921361496623</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>807.9921361496623</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,10 +5068,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118212</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>2716.927329289433</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872161</v>
+        <v>2716.927329289433</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>2854.440648734749</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.5507239167111</v>
+        <v>3200.825397924056</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888043</v>
+        <v>3031.889214996149</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>2733.85948200142</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>2586.96953450351</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>4507.978318053497</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>4375.015707657532</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>4085.94048100173</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="W13" t="n">
-        <v>1348.981318788498</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="X13" t="n">
-        <v>1120.991767890481</v>
+        <v>3603.266441897826</v>
       </c>
       <c r="Y13" t="n">
-        <v>900.1991887469509</v>
+        <v>3382.473862754296</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,16 +5536,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5555,10 +5557,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1063.573343591573</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>894.6371606636665</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>744.5205212513307</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>596.6074276689376</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>449.7174801710272</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>282.5213808859071</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1466.014387565343</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1245.221808421813</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2231.521967454859</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>2011.9205024778</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1722.845275821998</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1468.160787616111</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1178.74361757915</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,25 +6068,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2389.155899672379</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,16 +6542,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
         <v>1344.266747951538</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6682,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>718.5507239167111</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888043</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1638.398488825459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1348.981318788498</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>1120.991767890481</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>900.1991887469509</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6917,67 +6919,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="C37" t="n">
-        <v>2757.723669558405</v>
+        <v>2757.723669558404</v>
       </c>
       <c r="D37" t="n">
-        <v>2757.723669558405</v>
+        <v>2607.607030146068</v>
       </c>
       <c r="E37" t="n">
-        <v>2609.810575976011</v>
+        <v>2607.607030146068</v>
       </c>
       <c r="F37" t="n">
-        <v>2462.920628478101</v>
+        <v>2460.717082648158</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>2460.717082648158</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q37" t="n">
         <v>4690.833152398593</v>
@@ -7120,25 +7122,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>4440.932614305899</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>4221.33114932884</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>3932.255922673038</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>3677.571434467151</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>3388.154264430191</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>3160.164713532174</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>2939.372134388644</v>
       </c>
     </row>
     <row r="38">
@@ -7175,16 +7177,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>3839.850899059799</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>4391.760629299086</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>444.7013164925216</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7396,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
         <v>489.9894131830887</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2385.479785647333</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2385.479785647333</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2165.878320670274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7685,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>2878.328163333972</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>3475.706650960524</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>3475.706650960524</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>4027.616381199811</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>835.5837926935558</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>666.6476097656489</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
         <v>407.9027098310023</v>
@@ -7840,16 +7842,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.232257523796</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>265.0304328515137</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120155083</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>85.77246603528343</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>136.2749052347519</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>111.7546635373312</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.74287850523351</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>34.1148277476187</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50.61478728573218</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>40.25407754796456</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>144.8013425629422</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>80.03780599355811</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>21.62386594322851</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.54258064659001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>18.49466557218804</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>221.2652607547082</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>40.25407754796453</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.506781756523822</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D46" t="n">
-        <v>38.89198472948144</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>726340.8201764083</v>
+        <v>734065.3259278004</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726340.8201764083</v>
+        <v>734065.3259278004</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287552</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87914.29116309551</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
-        <v>87914.29116309551</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744335</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744346</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744346</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744344</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744335</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744337</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744286</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744308</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744286</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744282</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-806181.4288208341</v>
+        <v>-624800.1443614991</v>
       </c>
       <c r="C6" t="n">
-        <v>522563.3169067592</v>
+        <v>489951.6392144203</v>
       </c>
       <c r="D6" t="n">
-        <v>522563.316906759</v>
+        <v>329936.1764664209</v>
       </c>
       <c r="E6" t="n">
-        <v>270991.026705749</v>
+        <v>270991.0267057493</v>
       </c>
       <c r="F6" t="n">
-        <v>596403.4885131038</v>
+        <v>596403.4885131039</v>
       </c>
       <c r="G6" t="n">
         <v>596403.488513104</v>
       </c>
       <c r="H6" t="n">
-        <v>596403.4885131039</v>
+        <v>596403.4885131044</v>
       </c>
       <c r="I6" t="n">
-        <v>596403.4885131042</v>
+        <v>596403.4885131043</v>
       </c>
       <c r="J6" t="n">
-        <v>378872.2861158263</v>
+        <v>428798.3107031219</v>
       </c>
       <c r="K6" t="n">
-        <v>596403.4885131037</v>
+        <v>596403.4885131043</v>
       </c>
       <c r="L6" t="n">
-        <v>596403.4885131039</v>
+        <v>548109.5185049132</v>
       </c>
       <c r="M6" t="n">
-        <v>511348.4605775923</v>
+        <v>511348.4605775924</v>
       </c>
       <c r="N6" t="n">
-        <v>596403.4885131042</v>
+        <v>596403.4885131044</v>
       </c>
       <c r="O6" t="n">
-        <v>596403.4885131038</v>
+        <v>596403.4885131044</v>
       </c>
       <c r="P6" t="n">
-        <v>596403.488513104</v>
+        <v>596403.4885131044</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>141.6654981199195</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>62.24326423680992</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>118.2281213950241</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>33.8825963079745</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>198.5314713676978</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>22.80408245744189</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8576191056862</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>81.23275990285711</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>87.83576538104649</v>
       </c>
       <c r="Y8" t="n">
-        <v>126.9466649272277</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>183.3889571555937</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>221.1739254371162</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28390,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28627,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28810,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29803,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30043,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>300.5543663814922</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>281.0363767960754</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>398.1179220955534</v>
+        <v>384.4721492652009</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32315,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L18" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,13 +32788,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>397.4049812900382</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>305.5427724581384</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,19 +33262,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33745,22 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>432.1946015714842</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>693.4464364470641</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>200.4500263280935</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,25 +34453,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>531.2627466777524</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>600.4551148476367</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>161.999986601618</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>138.902342874057</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>259.5635423156792</v>
+        <v>245.9177694853267</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35963,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L18" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,13 +36436,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>259.5635423156792</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>290.0605676494659</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>562.1047243637308</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>66.47561891376326</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3193342.166310437</v>
+        <v>3189246.524805671</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>15.19594686334855</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>323.9946744192437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>132.4240037368297</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>131.1495788385454</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>267.3376021249882</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>129.2207871024371</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>137.3518934492377</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>140.3578935194477</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>281.8953352974225</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>65.34907289947479</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>131.6329842920048</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>30.87238256911979</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.8299898147636</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>146.9114582540259</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>98.00068573248018</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>27.34574348918529</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>125.2700607443043</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>7.61374123523283</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>105.8460632289454</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>66.39615665301106</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>121.8000472740358</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>112.5005260950201</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>30.87238256911979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>106.1798850986046</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>22.65115569188744</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>1257.650691388938</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>888.6881744485261</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>530.4224758417756</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>144.6342232435314</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657685</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>1644.250531453059</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145199</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.7476305124051</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C4" t="n">
-        <v>479.8114475844982</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>479.8114475844982</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>331.8983540021051</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>185.0084065041947</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384192</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>1279.178225384192</v>
+        <v>1401.388391530943</v>
       </c>
       <c r="X4" t="n">
-        <v>1051.188674486175</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="Y4" t="n">
-        <v>830.3960953426448</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1230.118083357703</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.118083357703</v>
+        <v>1077.003065952737</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>718.737367345987</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>332.9491147477427</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1969.486578691939</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1616.717923421825</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1616.717923421825</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1616.717923421825</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460311</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292608</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.0543138529669</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>623.11813092506</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063345</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1158.783151063345</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>930.7936001653281</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>792.0543138529669</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>261.3167113269582</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>250.2846652123588</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066532</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.979026139843</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.3436713194226</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>626.3436713194226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1035.98168704768</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>807.9921361496623</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.9921361496623</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>2716.927329289433</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>2716.927329289433</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>2854.440648734749</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3200.825397924056</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>3031.889214996149</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>2881.772575583814</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>2733.85948200142</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>2586.96953450351</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>4375.015707657532</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>4085.94048100173</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>3831.255992795844</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>3831.255992795844</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>3603.266441897826</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>3382.473862754296</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096659</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,25 +5652,25 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5837,22 +5837,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2231.521967454859</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2011.9205024778</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1722.845275821998</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1468.160787616111</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1178.74361757915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>950.7540666811332</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.7540666811332</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,22 +6071,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892232</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
         <v>95.58405025273903</v>
@@ -6314,16 +6314,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138411</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3584617859342</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2418223735984</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3287287912053</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>302.4387812932949</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="29">
@@ -6460,19 +6460,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>268.7034100454483</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>101.5073107603283</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6718,31 +6718,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459582</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C34" t="n">
-        <v>599.6019060180513</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>449.4852666057155</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817745</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761979</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="35">
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558404</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2757.723669558404</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2607.607030146068</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E37" t="n">
-        <v>2607.607030146068</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>2460.717082648158</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>2460.717082648158</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430191</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532174</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388644</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3212.252935505192</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3839.850899059799</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4391.760629299086</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2266.280484787188</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>985.5125840134625</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3584617859342</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2418223735984</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,37 +7636,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3475.706650960524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3475.706650960524</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4027.616381199811</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>558.0193492433381</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566525</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>265.0304328515137</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120155083</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>85.77246603528343</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>221.2652607547082</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.7546635373312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.1148277476187</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.61478728573218</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>152.486236692752</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>40.25407754796456</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>132.6809716109911</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>80.03780599355811</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>18.49466557218804</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>68.52575990662451</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>221.2652607547082</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>40.25407754796453</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>144.5956654067404</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312475</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.274728755</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287559</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287557</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309555</v>
+        <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
+        <v>8727.256391744235</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="L4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-624800.1443614991</v>
+        <v>-624800.1443615002</v>
       </c>
       <c r="C6" t="n">
-        <v>489951.6392144203</v>
+        <v>489951.6392144202</v>
       </c>
       <c r="D6" t="n">
-        <v>329936.1764664209</v>
+        <v>329936.1764664215</v>
       </c>
       <c r="E6" t="n">
-        <v>270991.0267057493</v>
+        <v>270643.6474513921</v>
       </c>
       <c r="F6" t="n">
-        <v>596403.4885131039</v>
+        <v>596056.1092587472</v>
       </c>
       <c r="G6" t="n">
-        <v>596403.488513104</v>
+        <v>596056.1092587473</v>
       </c>
       <c r="H6" t="n">
-        <v>596403.4885131044</v>
+        <v>596056.1092587474</v>
       </c>
       <c r="I6" t="n">
-        <v>596403.4885131043</v>
+        <v>596056.1092587473</v>
       </c>
       <c r="J6" t="n">
-        <v>428798.3107031219</v>
+        <v>428450.9314487641</v>
       </c>
       <c r="K6" t="n">
-        <v>596403.4885131043</v>
+        <v>596056.1092587473</v>
       </c>
       <c r="L6" t="n">
-        <v>548109.5185049132</v>
+        <v>547762.1392505562</v>
       </c>
       <c r="M6" t="n">
-        <v>511348.4605775924</v>
+        <v>511001.0813232355</v>
       </c>
       <c r="N6" t="n">
-        <v>596403.4885131044</v>
+        <v>596056.1092587477</v>
       </c>
       <c r="O6" t="n">
-        <v>596403.4885131044</v>
+        <v>596056.1092587471</v>
       </c>
       <c r="P6" t="n">
-        <v>596403.4885131044</v>
+        <v>596056.1092587474</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,31 +26959,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>391.6800988783629</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>62.24326423680992</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>33.8825963079745</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>155.3734194980456</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>139.5384436167232</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>198.5314713676978</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.23275990285711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>154.2498708678728</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>87.83576538104649</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>221.1739254371162</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>281.0363767960754</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32077,13 +32077,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L15" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32557,25 +32557,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>231.5286848890172</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32730,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>305.5427724581384</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>208.6096528357818</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>693.4464364470641</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>200.4500263280935</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065826</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>600.4551148476367</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>138.902342874057</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L15" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>92.97430510914305</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>66.47561891376348</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>562.1047243637308</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>66.47561891376326</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3189246.524805671</v>
+        <v>3191007.055108456</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>15.19594686334855</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>54.89924545572237</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>54.80909381784144</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>131.1495788385454</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>267.3376021249882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>64.77750115722745</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542836</v>
+        <v>50.98074812542791</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>140.3578935194477</v>
+        <v>260.8536857590186</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>117.0859349823495</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>30.87238256911979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8253826161909023</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.34574348918529</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>105.8460632289454</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>112.5005260950201</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>77.3950726440254</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.650691388938</v>
+        <v>1238.326884986529</v>
       </c>
       <c r="C2" t="n">
-        <v>888.6881744485261</v>
+        <v>869.3643680461169</v>
       </c>
       <c r="D2" t="n">
-        <v>530.4224758417756</v>
+        <v>511.0986694393663</v>
       </c>
       <c r="E2" t="n">
-        <v>144.6342232435314</v>
+        <v>125.3104168411221</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>118.3649160919186</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>106.7005698566116</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,22 +4412,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694945</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.9577966591559</v>
+        <v>888.4518357083933</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>719.5156527804864</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>569.3990133681507</v>
       </c>
       <c r="E4" t="n">
-        <v>303.9918807365201</v>
+        <v>421.4859197857576</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>274.5959722878472</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>106.6095075961258</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>106.6095075961258</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4515,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1401.388391530943</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1173.398840632926</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.6062614893956</v>
+        <v>888.4518357083933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1445.965582893149</v>
+        <v>1321.266375419619</v>
       </c>
       <c r="C5" t="n">
-        <v>1077.003065952737</v>
+        <v>952.3038584792075</v>
       </c>
       <c r="D5" t="n">
-        <v>718.737367345987</v>
+        <v>594.0381598724571</v>
       </c>
       <c r="E5" t="n">
-        <v>332.9491147477427</v>
+        <v>594.0381598724571</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>183.0522550828495</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,16 +4649,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657496</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378427</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255069</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431138</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F7" t="n">
-        <v>102.7424917452035</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4725,25 +4725,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X7" t="n">
         <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959893</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1865.035106955553</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1496.072590015141</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>1137.806891408391</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761617</v>
+        <v>752.0186388101465</v>
       </c>
       <c r="F8" t="n">
-        <v>261.3167113269582</v>
+        <v>341.032734020539</v>
       </c>
       <c r="G8" t="n">
-        <v>250.2846652123588</v>
+        <v>330.0006879059395</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4807,7 +4807,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>873.2432820829119</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>723.1266426705762</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>575.2135490881831</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>428.3236015902727</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5187,7 +5187,7 @@
         <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G13" t="n">
         <v>175.9033664000583</v>
@@ -5196,43 +5196,43 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
         <v>1876.803094014472</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,13 +5527,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,13 +5743,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>94.65038286230612</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
         <v>95.58405025273903</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369644</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261136</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6454,25 +6454,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192542</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2266.280484787188</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2046.67901981013</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1757.603793154328</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1502.919304948441</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1213.50213491148</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>985.5125840134625</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7636,37 +7636,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-1.875832822406664e-12</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>221.2652607547082</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.469330230033</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.486236692752</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>121.5862749664508</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>68.52575990662451</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>714182.5462739156</v>
+        <v>714182.5462739157</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>714182.5462739157</v>
+        <v>714182.5462739156</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.274728755</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287559</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>48293.9700081908</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309554</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744226</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26441,7 +26441,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744235</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
@@ -26450,7 +26450,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-624800.1443615002</v>
+        <v>-624800.1443615</v>
       </c>
       <c r="C6" t="n">
-        <v>489951.6392144202</v>
+        <v>489951.6392144206</v>
       </c>
       <c r="D6" t="n">
-        <v>329936.1764664215</v>
+        <v>329936.1764664211</v>
       </c>
       <c r="E6" t="n">
-        <v>270643.6474513921</v>
+        <v>270956.2887803126</v>
       </c>
       <c r="F6" t="n">
-        <v>596056.1092587472</v>
+        <v>596368.7505876686</v>
       </c>
       <c r="G6" t="n">
-        <v>596056.1092587473</v>
+        <v>596368.7505876689</v>
       </c>
       <c r="H6" t="n">
-        <v>596056.1092587474</v>
+        <v>596368.7505876685</v>
       </c>
       <c r="I6" t="n">
-        <v>596056.1092587473</v>
+        <v>596368.7505876684</v>
       </c>
       <c r="J6" t="n">
-        <v>428450.9314487641</v>
+        <v>428763.5727776856</v>
       </c>
       <c r="K6" t="n">
-        <v>596056.1092587473</v>
+        <v>596368.7505876686</v>
       </c>
       <c r="L6" t="n">
-        <v>547762.1392505562</v>
+        <v>548074.7805794778</v>
       </c>
       <c r="M6" t="n">
-        <v>511001.0813232355</v>
+        <v>511313.7226521566</v>
       </c>
       <c r="N6" t="n">
-        <v>596056.1092587477</v>
+        <v>596368.7505876686</v>
       </c>
       <c r="O6" t="n">
-        <v>596056.1092587471</v>
+        <v>596368.7505876685</v>
       </c>
       <c r="P6" t="n">
-        <v>596056.1092587474</v>
+        <v>596368.7505876686</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>391.6800988783629</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>246.119307106683</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>49.98750138605912</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>155.3734194980456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>139.5384436167232</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>346.7702016157265</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193758</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>154.2498708678728</v>
+        <v>33.7540786283019</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>48.93987327667877</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32730,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313199</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36378,10 +36378,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
